--- a/ProductionBudgetSheet.xlsx
+++ b/ProductionBudgetSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naffy\Documents\Git\3D Modeling\DGM-16660-Fall-2020-Nathaniel-Cook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26043D92-2996-4E7F-B4B1-40C2E9390AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC2CAF-ECF4-41A7-957F-5B71B86B20B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Production Summary" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="150">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -444,6 +444,75 @@
   </si>
   <si>
     <t>7 min</t>
+  </si>
+  <si>
+    <t>0 Min</t>
+  </si>
+  <si>
+    <t>1 Min</t>
+  </si>
+  <si>
+    <t>10 Min</t>
+  </si>
+  <si>
+    <t>30 Min</t>
+  </si>
+  <si>
+    <t>20 Min</t>
+  </si>
+  <si>
+    <t>5 Min</t>
+  </si>
+  <si>
+    <t>Watch Buckle Left Side</t>
+  </si>
+  <si>
+    <t>Watch Buckle Right Side</t>
+  </si>
+  <si>
+    <t>50 Min</t>
+  </si>
+  <si>
+    <t>3 Min</t>
+  </si>
+  <si>
+    <t>Buckle Lock</t>
+  </si>
+  <si>
+    <t>Buckle Main Piece</t>
+  </si>
+  <si>
+    <t>Buckle Wheel</t>
+  </si>
+  <si>
+    <t>Hand Pivot</t>
+  </si>
+  <si>
+    <t>6 Min</t>
+  </si>
+  <si>
+    <t>Second Hand</t>
+  </si>
+  <si>
+    <t>15 Min</t>
+  </si>
+  <si>
+    <t>Minute Hand</t>
+  </si>
+  <si>
+    <t>Hour Hand</t>
+  </si>
+  <si>
+    <t>Bottom Face</t>
+  </si>
+  <si>
+    <t>Top Band Spindle</t>
+  </si>
+  <si>
+    <t>Lower Band Spindle</t>
+  </si>
+  <si>
+    <t>Watch Buckle Spindle</t>
   </si>
 </sst>
 </file>
@@ -893,7 +962,7 @@
       </c>
       <c r="B4" s="13">
         <f>TotalModelTime</f>
-        <v>151</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75">
@@ -947,7 +1016,7 @@
       </c>
       <c r="B10" s="23">
         <f>SUM(B4:B9)</f>
-        <v>252.6</v>
+        <v>491.6</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1010,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1527,266 +1596,384 @@
         <v>107</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
       <c r="A32" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="11">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="11">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="12.75">
-      <c r="A44" s="7"/>
+      <c r="A44" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="12.75">
-      <c r="A45" s="7"/>
+      <c r="A45" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="12.75">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="11">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="12.75">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="12.75">
-      <c r="A48" s="7"/>
+      <c r="A48" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="12.75">
-      <c r="A49" s="7"/>
+      <c r="A49" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="12.75">
-      <c r="A50" s="7"/>
+      <c r="A50" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="12.75">
-      <c r="A51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="11">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="12.75">
-      <c r="A52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="11"/>
+      <c r="H52" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="12.75">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="11"/>
+      <c r="H53" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="12.75">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="11"/>
+      <c r="H54" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="12.75">
       <c r="A55" s="7"/>
@@ -1804,7 +1991,7 @@
       </c>
       <c r="H56" s="16">
         <f>SUM(H31:H55)</f>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -1815,7 +2002,7 @@
       </c>
       <c r="H57" s="20">
         <f>SUM(H12, H29, H56)</f>
-        <v>151</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/ProductionBudgetSheet.xlsx
+++ b/ProductionBudgetSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naffy\Documents\Git\3D Modeling\DGM-16660-Fall-2020-Nathaniel-Cook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC2CAF-ECF4-41A7-957F-5B71B86B20B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392AFCC-662E-4364-98E0-D7534C347041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="TotalAnimTime">'Rigging and Animation'!$H$5</definedName>
-    <definedName name="TotalModelTime">Models!$H$57</definedName>
+    <definedName name="TotalModelTime">Models!$H$103</definedName>
     <definedName name="TotalScriptTime">Scripts!$G$16</definedName>
     <definedName name="TotalSFXTime">SFX!$G$18</definedName>
     <definedName name="TotalUITime">UI!$G$13</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="183">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -513,6 +513,105 @@
   </si>
   <si>
     <t>Watch Buckle Spindle</t>
+  </si>
+  <si>
+    <t>Lower Face</t>
+  </si>
+  <si>
+    <t>Decagon Top Piece</t>
+  </si>
+  <si>
+    <t>Decagon Bottom Piece</t>
+  </si>
+  <si>
+    <t>High-Res Touch Up + Better Bevel</t>
+  </si>
+  <si>
+    <t>Buckle Hinges</t>
+  </si>
+  <si>
+    <t>BuckleSpindles</t>
+  </si>
+  <si>
+    <t>25 min</t>
+  </si>
+  <si>
+    <t>8 min</t>
+  </si>
+  <si>
+    <t>Strap Loops</t>
+  </si>
+  <si>
+    <t>Buckle Latch Holl Fill</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>Top Band</t>
+  </si>
+  <si>
+    <t>6 min</t>
+  </si>
+  <si>
+    <t>Band Hole 1</t>
+  </si>
+  <si>
+    <t>Band Holes 2-9</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t>Side Hole Fills</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>UV Mapping</t>
+  </si>
+  <si>
+    <t>Sides</t>
+  </si>
+  <si>
+    <t>4 min</t>
+  </si>
+  <si>
+    <t>16 min</t>
+  </si>
+  <si>
+    <t>90 min</t>
+  </si>
+  <si>
+    <t>Buckle Spindles</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <t>Buckle Latch Hole</t>
+  </si>
+  <si>
+    <t>Band Holes</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>UV Map on one Tile</t>
+  </si>
+  <si>
+    <t>70 min</t>
+  </si>
+  <si>
+    <t>Times are as accurate as I can recall, but some of the touching up and UV mapping sometimes got mixed.</t>
+  </si>
+  <si>
+    <t>A large amount of time was lost due to both mistakes in my geometry, and Maya just freaking out at various times.</t>
+  </si>
+  <si>
+    <t>Some pieces of work had to be redone, such as the UV mapping with the band holes because I noticed that some verts in the center were raised and I had to fix them and redo the map.</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1061,7 @@
       </c>
       <c r="B4" s="13">
         <f>TotalModelTime</f>
-        <v>390</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75">
@@ -1016,7 +1115,7 @@
       </c>
       <c r="B10" s="23">
         <f>SUM(B4:B9)</f>
-        <v>491.6</v>
+        <v>1049.5999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1077,10 +1176,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1997,12 +2096,517 @@
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" ht="12.75">
-      <c r="G57" s="18" t="s">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G76" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" s="16">
+        <f>SUM(H57:H75)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="H87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="H92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>126</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" t="s">
+        <v>160</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" t="s">
+        <v>165</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+      <c r="H96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" t="s">
+        <v>177</v>
+      </c>
+      <c r="H100">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="H101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G102" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102" s="16">
+        <f>SUM(H78:H101)</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G103" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="20">
-        <f>SUM(H12, H29, H56)</f>
-        <v>390</v>
+      <c r="H103" s="20">
+        <f>SUM(H12, H29, H56, H76, H102)</f>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A106" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
